--- a/album.xlsx
+++ b/album.xlsx
@@ -636,7 +636,7 @@
       </c>
       <c r="E2" s="33" t="n"/>
       <c r="F2" s="34" t="n">
-        <v>5486.1</v>
+        <v>5486.09</v>
       </c>
       <c r="G2" s="35" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="D50" s="32" t="n">
-        <v>4.9</v>
+        <v>4.89</v>
       </c>
       <c r="E50" s="37" t="n"/>
       <c r="F50" s="33" t="n"/>

--- a/album.xlsx
+++ b/album.xlsx
@@ -156,7 +156,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -219,6 +219,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -573,1472 +576,1472 @@
   <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="39.60546875" defaultRowHeight="15" customHeight="1" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="24.45" customHeight="1" s="27">
-      <c r="A1" s="28" t="inlineStr">
+    <row r="1" ht="24" customHeight="1" s="28">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="B1" s="28" t="inlineStr">
+      <c r="B1" s="29" t="inlineStr">
         <is>
           <t>Número</t>
         </is>
       </c>
-      <c r="C1" s="28" t="inlineStr">
+      <c r="C1" s="29" t="inlineStr">
         <is>
           <t>Condição</t>
         </is>
       </c>
-      <c r="D1" s="28" t="inlineStr">
+      <c r="D1" s="29" t="inlineStr">
         <is>
           <t>Preço</t>
         </is>
       </c>
-      <c r="E1" s="28" t="inlineStr">
+      <c r="E1" s="29" t="inlineStr">
         <is>
           <t>Ilustração</t>
         </is>
       </c>
-      <c r="F1" s="28" t="inlineStr">
+      <c r="F1" s="29" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G1" s="29" t="inlineStr">
+      <c r="G1" s="30" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="19.7" customHeight="1" s="27">
-      <c r="A2" s="30" t="inlineStr">
+    <row r="2" ht="19.5" customHeight="1" s="28">
+      <c r="A2" s="31" t="inlineStr">
         <is>
           <t>Adaman</t>
         </is>
       </c>
-      <c r="B2" s="30" t="inlineStr">
+      <c r="B2" s="31" t="inlineStr">
         <is>
           <t>GG57/GG70</t>
         </is>
       </c>
-      <c r="C2" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D2" s="32" t="n">
+      <c r="C2" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D2" s="33" t="n">
         <v>39.2</v>
       </c>
-      <c r="E2" s="33" t="n"/>
-      <c r="F2" s="34" t="n">
+      <c r="E2" s="34" t="n"/>
+      <c r="F2" s="35" t="n">
         <v>5486.09</v>
       </c>
-      <c r="G2" s="35" t="inlineStr">
+      <c r="G2" s="36" t="inlineStr">
         <is>
           <t>19/06/2025</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="17.35" customHeight="1" s="27">
-      <c r="A3" s="36" t="inlineStr">
+    <row r="3" ht="17.25" customHeight="1" s="28">
+      <c r="A3" s="37" t="inlineStr">
         <is>
           <t>Arceus-V-ASTRO</t>
         </is>
       </c>
-      <c r="B3" s="30" t="inlineStr">
+      <c r="B3" s="31" t="inlineStr">
         <is>
           <t>GG70/GG70</t>
         </is>
       </c>
-      <c r="C3" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D3" s="32" t="n">
+      <c r="C3" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D3" s="33" t="n">
         <v>799.9</v>
       </c>
-      <c r="F3" s="37" t="n"/>
-    </row>
-    <row r="4" ht="17.35" customHeight="1" s="27">
-      <c r="A4" s="38" t="inlineStr">
+      <c r="F3" s="38" t="n"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" s="28">
+      <c r="A4" s="39" t="inlineStr">
         <is>
           <t>Articuno</t>
         </is>
       </c>
-      <c r="B4" s="30" t="inlineStr">
+      <c r="B4" s="31" t="inlineStr">
         <is>
           <t>161/159</t>
         </is>
       </c>
-      <c r="C4" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D4" s="32" t="n">
+      <c r="C4" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D4" s="33" t="n">
         <v>71.98</v>
       </c>
-      <c r="F4" s="33" t="n"/>
-    </row>
-    <row r="5" ht="24.45" customHeight="1" s="27">
-      <c r="A5" s="38" t="inlineStr">
+      <c r="F4" s="34" t="n"/>
+    </row>
+    <row r="5" ht="24" customHeight="1" s="28">
+      <c r="A5" s="39" t="inlineStr">
         <is>
           <t>Baderneiro</t>
         </is>
       </c>
-      <c r="B5" s="30" t="inlineStr">
+      <c r="B5" s="31" t="inlineStr">
         <is>
           <t>181/159</t>
         </is>
       </c>
-      <c r="C5" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D5" s="32" t="n">
+      <c r="C5" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D5" s="33" t="n">
         <v>7.9</v>
       </c>
-      <c r="F5" s="33" t="n"/>
-      <c r="L5" s="39" t="n"/>
-      <c r="M5" s="39" t="n"/>
-      <c r="N5" s="39" t="n"/>
-      <c r="O5" s="39" t="n"/>
-      <c r="P5" s="39" t="n"/>
-    </row>
-    <row r="6" ht="279" customHeight="1" s="27">
-      <c r="A6" s="38" t="inlineStr">
+      <c r="F5" s="34" t="n"/>
+      <c r="L5" s="40" t="n"/>
+      <c r="M5" s="40" t="n"/>
+      <c r="N5" s="40" t="n"/>
+      <c r="O5" s="40" t="n"/>
+      <c r="P5" s="40" t="n"/>
+    </row>
+    <row r="6" ht="279" customHeight="1" s="28">
+      <c r="A6" s="39" t="inlineStr">
         <is>
           <t>Iono's Bellibolt ex</t>
         </is>
       </c>
-      <c r="B6" s="30" t="inlineStr">
+      <c r="B6" s="31" t="inlineStr">
         <is>
           <t>053/159</t>
         </is>
       </c>
-      <c r="C6" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D6" s="32" t="n">
+      <c r="C6" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D6" s="33" t="n">
         <v>6.95</v>
       </c>
-      <c r="F6" s="33" t="n"/>
-      <c r="N6" s="40" t="n"/>
-    </row>
-    <row r="7" ht="276.75" customHeight="1" s="27">
-      <c r="A7" s="30" t="inlineStr">
+      <c r="F6" s="34" t="n"/>
+      <c r="N6" s="41" t="n"/>
+    </row>
+    <row r="7" ht="276.75" customHeight="1" s="28">
+      <c r="A7" s="31" t="inlineStr">
         <is>
           <t>Bibarel</t>
         </is>
       </c>
-      <c r="B7" s="30" t="inlineStr">
+      <c r="B7" s="31" t="inlineStr">
         <is>
           <t>GG25/GG70</t>
         </is>
       </c>
-      <c r="C7" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D7" s="32" t="n">
+      <c r="C7" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D7" s="33" t="n">
         <v>15</v>
       </c>
-      <c r="F7" s="33" t="n"/>
-      <c r="N7" s="40" t="n"/>
-    </row>
-    <row r="8" ht="281.25" customHeight="1" s="27">
-      <c r="A8" s="38" t="inlineStr">
+      <c r="F7" s="34" t="n"/>
+      <c r="N7" s="41" t="n"/>
+    </row>
+    <row r="8" ht="281.25" customHeight="1" s="28">
+      <c r="A8" s="39" t="inlineStr">
         <is>
           <t>Blaziken EX</t>
         </is>
       </c>
-      <c r="B8" s="30" t="inlineStr">
+      <c r="B8" s="31" t="inlineStr">
         <is>
           <t>024/159</t>
         </is>
       </c>
-      <c r="C8" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D8" s="32" t="n">
+      <c r="C8" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D8" s="33" t="n">
         <v>13.8</v>
       </c>
-      <c r="F8" s="33" t="n"/>
-      <c r="N8" s="40" t="n"/>
-    </row>
-    <row r="9" ht="280.5" customHeight="1" s="27">
-      <c r="A9" s="30" t="inlineStr">
+      <c r="F8" s="34" t="n"/>
+      <c r="N8" s="41" t="n"/>
+    </row>
+    <row r="9" ht="280.5" customHeight="1" s="28">
+      <c r="A9" s="31" t="inlineStr">
         <is>
           <t>Dive Ball</t>
         </is>
       </c>
-      <c r="B9" s="30" t="inlineStr">
+      <c r="B9" s="31" t="inlineStr">
         <is>
           <t>161/160</t>
         </is>
       </c>
-      <c r="C9" s="41" t="inlineStr">
+      <c r="C9" s="42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D9" s="32" t="n">
+      <c r="D9" s="33" t="n">
         <v>90</v>
       </c>
-      <c r="F9" s="33" t="n"/>
-      <c r="N9" s="40" t="n"/>
-    </row>
-    <row r="10" ht="278.25" customHeight="1" s="27">
-      <c r="A10" s="30" t="inlineStr">
+      <c r="F9" s="34" t="n"/>
+      <c r="N9" s="41" t="n"/>
+    </row>
+    <row r="10" ht="278.25" customHeight="1" s="28">
+      <c r="A10" s="31" t="inlineStr">
         <is>
           <t>Charizard EX</t>
         </is>
       </c>
-      <c r="B10" s="30" t="inlineStr">
+      <c r="B10" s="31" t="inlineStr">
         <is>
           <t>11/83</t>
         </is>
       </c>
-      <c r="C10" s="42" t="inlineStr">
+      <c r="C10" s="43" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D10" s="32" t="n">
+      <c r="D10" s="33" t="n">
         <v>49.9</v>
       </c>
-      <c r="F10" s="33" t="n"/>
-      <c r="N10" s="40" t="n"/>
-    </row>
-    <row r="11" ht="279" customHeight="1" s="27">
-      <c r="A11" s="30" t="inlineStr">
+      <c r="F10" s="34" t="n"/>
+      <c r="N10" s="41" t="n"/>
+    </row>
+    <row r="11" ht="279" customHeight="1" s="28">
+      <c r="A11" s="31" t="inlineStr">
         <is>
           <t>Charizard EX</t>
         </is>
       </c>
-      <c r="B11" s="30" t="inlineStr">
+      <c r="B11" s="31" t="inlineStr">
         <is>
           <t>074/∞</t>
         </is>
       </c>
-      <c r="C11" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D11" s="32" t="n">
+      <c r="C11" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D11" s="33" t="n">
         <v>24.9</v>
       </c>
-      <c r="F11" s="33" t="n"/>
-      <c r="N11" s="40" t="n"/>
-    </row>
-    <row r="12" ht="280.5" customHeight="1" s="27">
-      <c r="A12" s="30" t="inlineStr">
+      <c r="F11" s="34" t="n"/>
+      <c r="N11" s="41" t="n"/>
+    </row>
+    <row r="12" ht="280.5" customHeight="1" s="28">
+      <c r="A12" s="31" t="inlineStr">
         <is>
           <t>Charizard-V-ASTRO</t>
         </is>
       </c>
-      <c r="B12" s="30" t="inlineStr">
+      <c r="B12" s="31" t="inlineStr">
         <is>
           <t>019/159</t>
         </is>
       </c>
-      <c r="C12" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D12" s="32" t="n">
+      <c r="C12" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D12" s="33" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="F12" s="33" t="n"/>
-      <c r="N12" s="40" t="n"/>
-    </row>
-    <row r="13" ht="282.75" customHeight="1" s="27">
-      <c r="A13" s="30" t="inlineStr">
+      <c r="F12" s="34" t="n"/>
+      <c r="N12" s="41" t="n"/>
+    </row>
+    <row r="13" ht="282.75" customHeight="1" s="28">
+      <c r="A13" s="31" t="inlineStr">
         <is>
           <t>Chesnaught EX</t>
         </is>
       </c>
-      <c r="B13" s="30" t="inlineStr">
+      <c r="B13" s="31" t="inlineStr">
         <is>
           <t>XY18/∞</t>
         </is>
       </c>
-      <c r="C13" s="41" t="inlineStr">
+      <c r="C13" s="42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D13" s="32" t="n">
+      <c r="D13" s="33" t="n">
         <v>14</v>
       </c>
-      <c r="F13" s="33" t="n"/>
-      <c r="N13" s="40" t="n"/>
-    </row>
-    <row r="14" ht="285" customHeight="1" s="27">
-      <c r="A14" s="30" t="inlineStr">
+      <c r="F13" s="34" t="n"/>
+      <c r="N13" s="41" t="n"/>
+    </row>
+    <row r="14" ht="285" customHeight="1" s="28">
+      <c r="A14" s="31" t="inlineStr">
         <is>
           <t>Chave de embaralhamento</t>
         </is>
       </c>
-      <c r="B14" s="30" t="inlineStr">
+      <c r="B14" s="31" t="inlineStr">
         <is>
           <t>186/191</t>
         </is>
       </c>
-      <c r="C14" s="41" t="inlineStr">
+      <c r="C14" s="42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D14" s="32" t="n">
+      <c r="D14" s="33" t="n">
         <v>11</v>
       </c>
-      <c r="F14" s="33" t="n"/>
-      <c r="N14" s="40" t="n"/>
-    </row>
-    <row r="15" ht="279.75" customHeight="1" s="27">
-      <c r="A15" s="30" t="inlineStr">
+      <c r="F14" s="34" t="n"/>
+      <c r="N14" s="41" t="n"/>
+    </row>
+    <row r="15" ht="279.75" customHeight="1" s="28">
+      <c r="A15" s="31" t="inlineStr">
         <is>
           <t xml:space="preserve">Darkrai </t>
         </is>
       </c>
-      <c r="B15" s="30" t="inlineStr">
+      <c r="B15" s="31" t="inlineStr">
         <is>
           <t>XY114/∞</t>
         </is>
       </c>
-      <c r="C15" s="41" t="inlineStr">
+      <c r="C15" s="42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D15" s="32" t="n">
+      <c r="D15" s="33" t="n">
         <v>44.9</v>
       </c>
-      <c r="F15" s="33" t="n"/>
-      <c r="N15" s="40" t="n"/>
-    </row>
-    <row r="16" ht="279" customHeight="1" s="27">
-      <c r="A16" s="30" t="inlineStr">
+      <c r="F15" s="34" t="n"/>
+      <c r="N15" s="41" t="n"/>
+    </row>
+    <row r="16" ht="279" customHeight="1" s="28">
+      <c r="A16" s="31" t="inlineStr">
         <is>
           <t>Darkrai EX</t>
         </is>
       </c>
-      <c r="B16" s="30" t="inlineStr">
+      <c r="B16" s="31" t="inlineStr">
         <is>
           <t>74/122</t>
         </is>
       </c>
-      <c r="C16" s="41" t="inlineStr">
+      <c r="C16" s="42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D16" s="32" t="n">
+      <c r="D16" s="33" t="n">
         <v>11.25</v>
       </c>
-      <c r="F16" s="33" t="n"/>
-    </row>
-    <row r="17" ht="283.5" customHeight="1" s="27">
-      <c r="A17" s="30" t="inlineStr">
+      <c r="F16" s="34" t="n"/>
+    </row>
+    <row r="17" ht="283.5" customHeight="1" s="28">
+      <c r="A17" s="31" t="inlineStr">
         <is>
           <t>Delphox TURBO</t>
         </is>
       </c>
-      <c r="B17" s="30" t="inlineStr">
+      <c r="B17" s="31" t="inlineStr">
         <is>
           <t>14/124</t>
         </is>
       </c>
-      <c r="C17" s="42" t="inlineStr">
+      <c r="C17" s="43" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D17" s="32" t="n">
+      <c r="D17" s="33" t="n">
         <v>0.9</v>
       </c>
-      <c r="F17" s="33" t="n"/>
-    </row>
-    <row r="18" ht="278.25" customHeight="1" s="27">
-      <c r="A18" s="30" t="inlineStr">
+      <c r="F17" s="34" t="n"/>
+    </row>
+    <row r="18" ht="278.25" customHeight="1" s="28">
+      <c r="A18" s="31" t="inlineStr">
         <is>
           <t>Diancie EX</t>
         </is>
       </c>
-      <c r="B18" s="30" t="inlineStr">
+      <c r="B18" s="31" t="inlineStr">
         <is>
           <t>XY43/∞</t>
         </is>
       </c>
-      <c r="C18" s="41" t="inlineStr">
+      <c r="C18" s="42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D18" s="32" t="n">
+      <c r="D18" s="33" t="n">
         <v>14</v>
       </c>
-      <c r="F18" s="33" t="n"/>
-    </row>
-    <row r="19" ht="284.25" customHeight="1" s="27">
-      <c r="A19" s="38" t="inlineStr">
+      <c r="F18" s="34" t="n"/>
+    </row>
+    <row r="19" ht="284.25" customHeight="1" s="28">
+      <c r="A19" s="39" t="inlineStr">
         <is>
           <t xml:space="preserve">Eevee </t>
         </is>
       </c>
-      <c r="B19" s="30" t="inlineStr">
+      <c r="B19" s="31" t="inlineStr">
         <is>
           <t>173/∞</t>
         </is>
       </c>
-      <c r="C19" s="41" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D19" s="32" t="n">
+      <c r="C19" s="42" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D19" s="33" t="n">
         <v>57.99</v>
       </c>
-      <c r="F19" s="33" t="n"/>
-    </row>
-    <row r="20" ht="284.25" customHeight="1" s="27">
-      <c r="A20" s="30" t="inlineStr">
+      <c r="F19" s="34" t="n"/>
+    </row>
+    <row r="20" ht="284.25" customHeight="1" s="28">
+      <c r="A20" s="31" t="inlineStr">
         <is>
           <t>Eevee V</t>
         </is>
       </c>
-      <c r="B20" s="30" t="inlineStr">
+      <c r="B20" s="31" t="inlineStr">
         <is>
           <t>108/159</t>
         </is>
       </c>
-      <c r="C20" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D20" s="32" t="n">
+      <c r="C20" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D20" s="33" t="n">
         <v>31.49</v>
       </c>
-      <c r="F20" s="33" t="n"/>
-    </row>
-    <row r="21" ht="285" customHeight="1" s="27">
-      <c r="A21" s="30" t="inlineStr">
+      <c r="F20" s="34" t="n"/>
+    </row>
+    <row r="21" ht="285" customHeight="1" s="28">
+      <c r="A21" s="31" t="inlineStr">
         <is>
           <t>Emboar EX</t>
         </is>
       </c>
-      <c r="B21" s="30" t="inlineStr">
+      <c r="B21" s="31" t="inlineStr">
         <is>
           <t>14/122</t>
         </is>
       </c>
-      <c r="C21" s="43" t="inlineStr">
+      <c r="C21" s="44" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="D21" s="32" t="n">
+      <c r="D21" s="33" t="n">
         <v>11.7</v>
       </c>
-      <c r="F21" s="33" t="n"/>
-    </row>
-    <row r="22" ht="282" customHeight="1" s="27">
-      <c r="A22" s="30" t="inlineStr">
+      <c r="F21" s="34" t="n"/>
+    </row>
+    <row r="22" ht="282" customHeight="1" s="28">
+      <c r="A22" s="31" t="inlineStr">
         <is>
           <t>Genesect EX</t>
         </is>
       </c>
-      <c r="B22" s="30" t="inlineStr">
+      <c r="B22" s="31" t="inlineStr">
         <is>
           <t>120/124</t>
         </is>
       </c>
-      <c r="C22" s="31" t="inlineStr">
+      <c r="C22" s="32" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D22" s="32" t="n">
+      <c r="D22" s="33" t="n">
         <v>11.9</v>
       </c>
-      <c r="F22" s="33" t="n"/>
-    </row>
-    <row r="23" ht="279" customHeight="1" s="27">
-      <c r="A23" s="30" t="inlineStr">
+      <c r="F22" s="34" t="n"/>
+    </row>
+    <row r="23" ht="279" customHeight="1" s="28">
+      <c r="A23" s="31" t="inlineStr">
         <is>
           <t>Giratina-V-ASTRO</t>
         </is>
       </c>
-      <c r="B23" s="30" t="inlineStr">
+      <c r="B23" s="31" t="inlineStr">
         <is>
           <t>GG69/GG70</t>
         </is>
       </c>
-      <c r="C23" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D23" s="32" t="n">
+      <c r="C23" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D23" s="33" t="n">
         <v>939.9</v>
       </c>
-      <c r="F23" s="33" t="n"/>
-    </row>
-    <row r="24" ht="276.75" customHeight="1" s="27">
-      <c r="A24" s="30" t="inlineStr">
+      <c r="F23" s="34" t="n"/>
+    </row>
+    <row r="24" ht="276.75" customHeight="1" s="28">
+      <c r="A24" s="31" t="inlineStr">
         <is>
           <t>Glaceon EX</t>
         </is>
       </c>
-      <c r="B24" s="30" t="inlineStr">
+      <c r="B24" s="31" t="inlineStr">
         <is>
           <t>20/124</t>
         </is>
       </c>
-      <c r="C24" s="41" t="inlineStr">
+      <c r="C24" s="42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D24" s="32" t="n">
+      <c r="D24" s="33" t="n">
         <v>24.95</v>
       </c>
-      <c r="F24" s="33" t="n"/>
-    </row>
-    <row r="25" ht="282" customHeight="1" s="27">
-      <c r="A25" s="30" t="inlineStr">
+      <c r="F24" s="34" t="n"/>
+    </row>
+    <row r="25" ht="282" customHeight="1" s="28">
+      <c r="A25" s="31" t="inlineStr">
         <is>
           <t>Greninja EX</t>
         </is>
       </c>
-      <c r="B25" s="30" t="inlineStr">
+      <c r="B25" s="31" t="inlineStr">
         <is>
           <t>XY20/∞</t>
         </is>
       </c>
-      <c r="C25" s="43" t="inlineStr">
+      <c r="C25" s="44" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="D25" s="32" t="n">
+      <c r="D25" s="33" t="n">
         <v>18</v>
       </c>
-      <c r="F25" s="33" t="n"/>
-    </row>
-    <row r="26" ht="284.25" customHeight="1" s="27">
-      <c r="A26" s="30" t="inlineStr">
+      <c r="F25" s="34" t="n"/>
+    </row>
+    <row r="26" ht="284.25" customHeight="1" s="28">
+      <c r="A26" s="31" t="inlineStr">
         <is>
           <t>Greninja TURBO</t>
         </is>
       </c>
-      <c r="B26" s="30" t="inlineStr">
+      <c r="B26" s="31" t="inlineStr">
         <is>
           <t>41/122</t>
         </is>
       </c>
-      <c r="C26" s="41" t="inlineStr">
+      <c r="C26" s="42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D26" s="32" t="n">
+      <c r="D26" s="33" t="n">
         <v>48.9</v>
       </c>
-      <c r="F26" s="33" t="n"/>
-    </row>
-    <row r="27" ht="279.75" customHeight="1" s="27">
-      <c r="A27" s="30" t="inlineStr">
+      <c r="F26" s="34" t="n"/>
+    </row>
+    <row r="27" ht="279.75" customHeight="1" s="28">
+      <c r="A27" s="31" t="inlineStr">
         <is>
           <t>Gyarados EX</t>
         </is>
       </c>
-      <c r="B27" s="30" t="inlineStr">
+      <c r="B27" s="31" t="inlineStr">
         <is>
           <t>123/122</t>
         </is>
       </c>
-      <c r="C27" s="41" t="inlineStr">
+      <c r="C27" s="42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D27" s="32" t="n">
+      <c r="D27" s="33" t="n">
         <v>219</v>
       </c>
-      <c r="F27" s="33" t="n"/>
-    </row>
-    <row r="28" ht="284.25" customHeight="1" s="27">
-      <c r="A28" s="38" t="inlineStr">
+      <c r="F27" s="34" t="n"/>
+    </row>
+    <row r="28" ht="284.25" customHeight="1" s="28">
+      <c r="A28" s="39" t="inlineStr">
         <is>
           <t>Flutter Mane</t>
         </is>
       </c>
-      <c r="B28" s="30" t="inlineStr">
+      <c r="B28" s="31" t="inlineStr">
         <is>
           <t>043/131</t>
         </is>
       </c>
-      <c r="C28" s="41" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D28" s="32" t="n">
+      <c r="C28" s="42" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D28" s="33" t="n">
         <v>0.3</v>
       </c>
-      <c r="F28" s="33" t="n"/>
-    </row>
-    <row r="29" ht="282.75" customHeight="1" s="27">
-      <c r="A29" s="30" t="inlineStr">
+      <c r="F28" s="34" t="n"/>
+    </row>
+    <row r="29" ht="282.75" customHeight="1" s="28">
+      <c r="A29" s="31" t="inlineStr">
         <is>
           <t>Keldeo-EX</t>
         </is>
       </c>
-      <c r="B29" s="30" t="inlineStr">
+      <c r="B29" s="31" t="inlineStr">
         <is>
           <t>BW61/∞</t>
         </is>
       </c>
-      <c r="C29" s="44" t="inlineStr">
+      <c r="C29" s="45" t="inlineStr">
         <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="D29" s="32" t="n">
+      <c r="D29" s="33" t="n">
         <v>9.68</v>
       </c>
-      <c r="F29" s="33" t="n"/>
-    </row>
-    <row r="30" ht="284.25" customHeight="1" s="27">
-      <c r="A30" s="38" t="inlineStr">
+      <c r="F29" s="34" t="n"/>
+    </row>
+    <row r="30" ht="284.25" customHeight="1" s="28">
+      <c r="A30" s="39" t="inlineStr">
         <is>
           <t>Kilowattrel da Kissera</t>
         </is>
       </c>
-      <c r="B30" s="30" t="inlineStr">
+      <c r="B30" s="31" t="inlineStr">
         <is>
           <t>163/159</t>
         </is>
       </c>
-      <c r="C30" s="41" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D30" s="32" t="n">
+      <c r="C30" s="42" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D30" s="33" t="n">
         <v>30</v>
       </c>
-      <c r="F30" s="33" t="n"/>
-    </row>
-    <row r="31" ht="286.5" customHeight="1" s="27">
-      <c r="A31" s="30" t="inlineStr">
+      <c r="F30" s="34" t="n"/>
+    </row>
+    <row r="31" ht="286.5" customHeight="1" s="28">
+      <c r="A31" s="31" t="inlineStr">
         <is>
           <t>Team Aqua's Kyogre-EX</t>
         </is>
       </c>
-      <c r="B31" s="30" t="inlineStr">
+      <c r="B31" s="31" t="inlineStr">
         <is>
           <t>6/34</t>
         </is>
       </c>
-      <c r="C31" s="41" t="inlineStr">
+      <c r="C31" s="42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D31" s="32" t="n">
+      <c r="D31" s="33" t="n">
         <v>248.9</v>
       </c>
-      <c r="F31" s="33" t="n"/>
-    </row>
-    <row r="32" ht="280.5" customHeight="1" s="27">
-      <c r="A32" s="30" t="inlineStr">
+      <c r="F31" s="34" t="n"/>
+    </row>
+    <row r="32" ht="280.5" customHeight="1" s="28">
+      <c r="A32" s="31" t="inlineStr">
         <is>
           <t>Lugia TURBO</t>
         </is>
       </c>
-      <c r="B32" s="30" t="inlineStr">
+      <c r="B32" s="31" t="inlineStr">
         <is>
           <t>79/124</t>
         </is>
       </c>
-      <c r="C32" s="41" t="inlineStr">
+      <c r="C32" s="42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D32" s="32" t="n">
+      <c r="D32" s="33" t="n">
         <v>15.5</v>
       </c>
-      <c r="F32" s="33" t="n"/>
-    </row>
-    <row r="33" ht="285" customHeight="1" s="27">
-      <c r="A33" s="38" t="inlineStr">
+      <c r="F32" s="34" t="n"/>
+    </row>
+    <row r="33" ht="285" customHeight="1" s="28">
+      <c r="A33" s="39" t="inlineStr">
         <is>
           <t xml:space="preserve">Magmortar </t>
         </is>
       </c>
-      <c r="B33" s="30" t="inlineStr">
+      <c r="B33" s="31" t="inlineStr">
         <is>
           <t>GG03/GG70</t>
         </is>
       </c>
-      <c r="C33" s="41" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D33" s="32" t="n">
+      <c r="C33" s="42" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D33" s="33" t="n">
         <v>49.9</v>
       </c>
-      <c r="F33" s="33" t="n"/>
-    </row>
-    <row r="34" ht="279" customHeight="1" s="27">
-      <c r="A34" s="30" t="inlineStr">
+      <c r="F33" s="34" t="n"/>
+    </row>
+    <row r="34" ht="279" customHeight="1" s="28">
+      <c r="A34" s="31" t="inlineStr">
         <is>
           <t>Malamar EX</t>
         </is>
       </c>
-      <c r="B34" s="30" t="inlineStr">
+      <c r="B34" s="31" t="inlineStr">
         <is>
           <t>58/119</t>
         </is>
       </c>
-      <c r="C34" s="42" t="inlineStr">
+      <c r="C34" s="43" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D34" s="32" t="n">
+      <c r="D34" s="33" t="n">
         <v>5.85</v>
       </c>
-      <c r="F34" s="33" t="n"/>
-    </row>
-    <row r="35" ht="285" customHeight="1" s="27">
-      <c r="A35" s="30" t="inlineStr">
+      <c r="F34" s="34" t="n"/>
+    </row>
+    <row r="35" ht="285" customHeight="1" s="28">
+      <c r="A35" s="31" t="inlineStr">
         <is>
           <t>M Charizard-EX</t>
         </is>
       </c>
-      <c r="B35" s="30" t="inlineStr">
+      <c r="B35" s="31" t="inlineStr">
         <is>
           <t>13/106</t>
         </is>
       </c>
-      <c r="C35" s="44" t="inlineStr">
+      <c r="C35" s="45" t="inlineStr">
         <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="D35" s="32" t="n">
+      <c r="D35" s="33" t="n">
         <v>259</v>
       </c>
-      <c r="F35" s="33" t="n"/>
-    </row>
-    <row r="36" ht="284.25" customHeight="1" s="27">
-      <c r="A36" s="30" t="inlineStr">
+      <c r="F35" s="34" t="n"/>
+    </row>
+    <row r="36" ht="284.25" customHeight="1" s="28">
+      <c r="A36" s="31" t="inlineStr">
         <is>
           <t>M Gardevoir-EX</t>
         </is>
       </c>
-      <c r="B36" s="30" t="inlineStr">
+      <c r="B36" s="31" t="inlineStr">
         <is>
           <t>RC31/83</t>
         </is>
       </c>
-      <c r="C36" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D36" s="32" t="n">
+      <c r="C36" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D36" s="33" t="n">
         <v>289.32</v>
       </c>
-      <c r="F36" s="33" t="n"/>
-    </row>
-    <row r="37" ht="276" customHeight="1" s="27">
-      <c r="A37" s="30" t="inlineStr">
+      <c r="F36" s="34" t="n"/>
+    </row>
+    <row r="37" ht="276" customHeight="1" s="28">
+      <c r="A37" s="31" t="inlineStr">
         <is>
           <t>M Gyarados-EX</t>
         </is>
       </c>
-      <c r="B37" s="30" t="inlineStr">
+      <c r="B37" s="31" t="inlineStr">
         <is>
           <t>115/122</t>
         </is>
       </c>
-      <c r="C37" s="41" t="inlineStr">
+      <c r="C37" s="42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D37" s="32" t="n">
+      <c r="D37" s="33" t="n">
         <v>299.99</v>
       </c>
-      <c r="E37" s="37" t="n"/>
-      <c r="F37" s="33" t="n"/>
-    </row>
-    <row r="38" ht="284.25" customHeight="1" s="27">
-      <c r="A38" s="30" t="inlineStr">
+      <c r="E37" s="38" t="n"/>
+      <c r="F37" s="34" t="n"/>
+    </row>
+    <row r="38" ht="284.25" customHeight="1" s="28">
+      <c r="A38" s="31" t="inlineStr">
         <is>
           <t>M Heracross-EX</t>
         </is>
       </c>
-      <c r="B38" s="30" t="inlineStr">
+      <c r="B38" s="31" t="inlineStr">
         <is>
           <t>112/111</t>
         </is>
       </c>
-      <c r="C38" s="42" t="inlineStr">
+      <c r="C38" s="43" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D38" s="32" t="n">
+      <c r="D38" s="33" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c r="E38" s="37" t="n"/>
-      <c r="F38" s="33" t="n"/>
-    </row>
-    <row r="39" ht="283.5" customHeight="1" s="27">
-      <c r="A39" s="30" t="inlineStr">
+      <c r="E38" s="38" t="n"/>
+      <c r="F38" s="34" t="n"/>
+    </row>
+    <row r="39" ht="283.5" customHeight="1" s="28">
+      <c r="A39" s="31" t="inlineStr">
         <is>
           <t>M Lucario-EX</t>
         </is>
       </c>
-      <c r="B39" s="30" t="inlineStr">
+      <c r="B39" s="31" t="inlineStr">
         <is>
           <t>55/111</t>
         </is>
       </c>
-      <c r="C39" s="41" t="inlineStr">
+      <c r="C39" s="42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D39" s="32" t="n">
+      <c r="D39" s="33" t="n">
         <v>65.90000000000001</v>
       </c>
-      <c r="E39" s="37" t="n"/>
-      <c r="F39" s="33" t="n"/>
-    </row>
-    <row r="40" ht="282" customHeight="1" s="27">
-      <c r="A40" s="30" t="inlineStr">
+      <c r="E39" s="38" t="n"/>
+      <c r="F39" s="34" t="n"/>
+    </row>
+    <row r="40" ht="282" customHeight="1" s="28">
+      <c r="A40" s="31" t="inlineStr">
         <is>
           <t>M Scizor-EX</t>
         </is>
       </c>
-      <c r="B40" s="30" t="inlineStr">
+      <c r="B40" s="31" t="inlineStr">
         <is>
           <t>77/122</t>
         </is>
       </c>
-      <c r="C40" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D40" s="32" t="n">
+      <c r="C40" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D40" s="33" t="n">
         <v>249.9</v>
       </c>
-      <c r="E40" s="37" t="n"/>
-      <c r="F40" s="33" t="n"/>
-    </row>
-    <row r="41" ht="17.35" customHeight="1" s="27">
-      <c r="A41" s="30" t="inlineStr">
+      <c r="E40" s="38" t="n"/>
+      <c r="F40" s="34" t="n"/>
+    </row>
+    <row r="41" ht="17.25" customHeight="1" s="28">
+      <c r="A41" s="31" t="inlineStr">
         <is>
           <t>Mesprit</t>
         </is>
       </c>
-      <c r="B41" s="30" t="inlineStr">
+      <c r="B41" s="31" t="inlineStr">
         <is>
           <t>204/191</t>
         </is>
       </c>
-      <c r="C41" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D41" s="32" t="n">
+      <c r="C41" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D41" s="33" t="n">
         <v>43</v>
       </c>
-      <c r="E41" s="37" t="n"/>
-      <c r="F41" s="33" t="n"/>
-    </row>
-    <row r="42" ht="17.35" customHeight="1" s="27">
-      <c r="A42" s="45" t="inlineStr">
+      <c r="E41" s="38" t="n"/>
+      <c r="F41" s="34" t="n"/>
+    </row>
+    <row r="42" ht="17.25" customHeight="1" s="28">
+      <c r="A42" s="46" t="inlineStr">
         <is>
           <t>Mewtwo EX da Equipe Rocket</t>
         </is>
       </c>
-      <c r="B42" s="30" t="n"/>
-      <c r="C42" s="42" t="n"/>
-      <c r="D42" s="32" t="n"/>
-      <c r="E42" s="37" t="n"/>
-      <c r="F42" s="33" t="n"/>
-    </row>
-    <row r="43" ht="17.35" customHeight="1" s="27">
-      <c r="A43" s="45" t="inlineStr">
+      <c r="B42" s="31" t="n"/>
+      <c r="C42" s="43" t="n"/>
+      <c r="D42" s="33" t="n"/>
+      <c r="E42" s="38" t="n"/>
+      <c r="F42" s="34" t="n"/>
+    </row>
+    <row r="43" ht="17.25" customHeight="1" s="28">
+      <c r="A43" s="46" t="inlineStr">
         <is>
           <t>Mewtwo EX da Equipe Rocket</t>
         </is>
       </c>
-      <c r="B43" s="30" t="n"/>
-      <c r="C43" s="42" t="n"/>
-      <c r="D43" s="32" t="n"/>
-      <c r="E43" s="37" t="n"/>
-      <c r="F43" s="33" t="n"/>
-    </row>
-    <row r="44" ht="17.35" customHeight="1" s="27">
-      <c r="A44" s="45" t="inlineStr">
+      <c r="B43" s="31" t="n"/>
+      <c r="C43" s="43" t="n"/>
+      <c r="D43" s="33" t="n"/>
+      <c r="E43" s="38" t="n"/>
+      <c r="F43" s="34" t="n"/>
+    </row>
+    <row r="44" ht="17.25" customHeight="1" s="28">
+      <c r="A44" s="46" t="inlineStr">
         <is>
           <t>Milotic (JP)</t>
         </is>
       </c>
-      <c r="B44" s="30" t="n"/>
-      <c r="C44" s="41" t="n"/>
-      <c r="D44" s="32" t="n"/>
-      <c r="E44" s="37" t="n"/>
-      <c r="F44" s="33" t="n"/>
-    </row>
-    <row r="45" ht="17.35" customHeight="1" s="27">
-      <c r="A45" s="45" t="inlineStr">
+      <c r="B44" s="31" t="n"/>
+      <c r="C44" s="42" t="n"/>
+      <c r="D44" s="33" t="n"/>
+      <c r="E44" s="38" t="n"/>
+      <c r="F44" s="34" t="n"/>
+    </row>
+    <row r="45" ht="17.25" customHeight="1" s="28">
+      <c r="A45" s="46" t="inlineStr">
         <is>
           <t>Moira</t>
         </is>
       </c>
-      <c r="B45" s="30" t="n"/>
-      <c r="C45" s="41" t="n"/>
-      <c r="D45" s="32" t="n"/>
-      <c r="E45" s="37" t="n"/>
-      <c r="F45" s="33" t="n"/>
-    </row>
-    <row r="46" ht="17.35" customHeight="1" s="27">
-      <c r="A46" s="45" t="inlineStr">
+      <c r="B45" s="31" t="n"/>
+      <c r="C45" s="42" t="n"/>
+      <c r="D45" s="33" t="n"/>
+      <c r="E45" s="38" t="n"/>
+      <c r="F45" s="34" t="n"/>
+    </row>
+    <row r="46" ht="17.25" customHeight="1" s="28">
+      <c r="A46" s="46" t="inlineStr">
         <is>
           <t>Moltres EX</t>
         </is>
       </c>
-      <c r="B46" s="30" t="n"/>
-      <c r="C46" s="41" t="n"/>
-      <c r="D46" s="32" t="n"/>
-      <c r="E46" s="37" t="n"/>
-      <c r="F46" s="33" t="n"/>
-    </row>
-    <row r="47" ht="17.35" customHeight="1" s="27">
-      <c r="A47" s="30" t="inlineStr">
+      <c r="B46" s="31" t="n"/>
+      <c r="C46" s="42" t="n"/>
+      <c r="D46" s="33" t="n"/>
+      <c r="E46" s="38" t="n"/>
+      <c r="F46" s="34" t="n"/>
+    </row>
+    <row r="47" ht="17.25" customHeight="1" s="28">
+      <c r="A47" s="31" t="inlineStr">
         <is>
           <t>Noivern EX</t>
         </is>
       </c>
-      <c r="B47" s="30" t="inlineStr">
+      <c r="B47" s="31" t="inlineStr">
         <is>
           <t>069/91</t>
         </is>
       </c>
-      <c r="C47" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D47" s="32" t="n">
+      <c r="C47" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D47" s="33" t="n">
         <v>4.75</v>
       </c>
-      <c r="E47" s="37" t="n"/>
-      <c r="F47" s="33" t="n"/>
-    </row>
-    <row r="48" ht="17.35" customHeight="1" s="27">
-      <c r="A48" s="45" t="inlineStr">
+      <c r="E47" s="38" t="n"/>
+      <c r="F47" s="34" t="n"/>
+    </row>
+    <row r="48" ht="17.25" customHeight="1" s="28">
+      <c r="A48" s="46" t="inlineStr">
         <is>
           <t>Ogerpon máscara fornalha EX</t>
         </is>
       </c>
-      <c r="B48" s="30" t="n"/>
-      <c r="C48" s="41" t="n"/>
-      <c r="D48" s="32" t="n"/>
-      <c r="E48" s="37" t="n"/>
-      <c r="F48" s="33" t="n"/>
-    </row>
-    <row r="49" ht="17.35" customHeight="1" s="27">
-      <c r="A49" s="30" t="inlineStr">
+      <c r="B48" s="31" t="n"/>
+      <c r="C48" s="42" t="n"/>
+      <c r="D48" s="33" t="n"/>
+      <c r="E48" s="38" t="n"/>
+      <c r="F48" s="34" t="n"/>
+    </row>
+    <row r="49" ht="17.25" customHeight="1" s="28">
+      <c r="A49" s="31" t="inlineStr">
         <is>
           <t>Palkia-EX</t>
         </is>
       </c>
-      <c r="B49" s="30" t="inlineStr">
+      <c r="B49" s="31" t="inlineStr">
         <is>
           <t>31/122</t>
         </is>
       </c>
-      <c r="C49" s="42" t="inlineStr">
+      <c r="C49" s="43" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D49" s="32" t="n">
+      <c r="D49" s="33" t="n">
         <v>7.9</v>
       </c>
-      <c r="E49" s="37" t="n"/>
-      <c r="F49" s="33" t="n"/>
-    </row>
-    <row r="50" ht="17.35" customHeight="1" s="27">
-      <c r="A50" s="30" t="inlineStr">
+      <c r="E49" s="38" t="n"/>
+      <c r="F49" s="34" t="n"/>
+    </row>
+    <row r="50" ht="17.25" customHeight="1" s="28">
+      <c r="A50" s="31" t="inlineStr">
         <is>
           <t>Pawmi</t>
         </is>
       </c>
-      <c r="B50" s="30" t="inlineStr">
+      <c r="B50" s="31" t="inlineStr">
         <is>
           <t>226/091</t>
         </is>
       </c>
-      <c r="C50" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D50" s="32" t="n">
+      <c r="C50" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D50" s="33" t="n">
         <v>4.89</v>
       </c>
-      <c r="E50" s="37" t="n"/>
-      <c r="F50" s="33" t="n"/>
-    </row>
-    <row r="51" ht="17.35" customHeight="1" s="27">
-      <c r="A51" s="30" t="inlineStr">
+      <c r="E50" s="38" t="n"/>
+      <c r="F50" s="34" t="n"/>
+    </row>
+    <row r="51" ht="17.25" customHeight="1" s="28">
+      <c r="A51" s="31" t="inlineStr">
         <is>
           <t>Pikachu</t>
         </is>
       </c>
-      <c r="B51" s="30" t="inlineStr">
+      <c r="B51" s="31" t="inlineStr">
         <is>
           <t>131/091</t>
         </is>
       </c>
-      <c r="C51" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D51" s="32" t="n">
+      <c r="C51" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D51" s="33" t="n">
         <v>127.95</v>
       </c>
-      <c r="E51" s="37" t="n"/>
-      <c r="F51" s="33" t="n"/>
-    </row>
-    <row r="52" ht="17.35" customHeight="1" s="27">
-      <c r="A52" s="30" t="inlineStr">
+      <c r="E51" s="38" t="n"/>
+      <c r="F51" s="34" t="n"/>
+    </row>
+    <row r="52" ht="17.25" customHeight="1" s="28">
+      <c r="A52" s="31" t="inlineStr">
         <is>
           <t>Poochyena</t>
         </is>
       </c>
-      <c r="B52" s="30" t="inlineStr">
+      <c r="B52" s="31" t="inlineStr">
         <is>
           <t>GG33/GG70</t>
         </is>
       </c>
-      <c r="C52" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D52" s="32" t="n">
+      <c r="C52" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D52" s="33" t="n">
         <v>28.9</v>
       </c>
-      <c r="E52" s="37" t="n"/>
-      <c r="F52" s="33" t="n"/>
-    </row>
-    <row r="53" ht="17.35" customHeight="1" s="27">
-      <c r="A53" s="30" t="inlineStr">
+      <c r="E52" s="38" t="n"/>
+      <c r="F52" s="34" t="n"/>
+    </row>
+    <row r="53" ht="17.25" customHeight="1" s="28">
+      <c r="A53" s="31" t="inlineStr">
         <is>
           <t>Reuniclus</t>
         </is>
       </c>
-      <c r="B53" s="30" t="inlineStr">
+      <c r="B53" s="31" t="inlineStr">
         <is>
           <t>171/162</t>
         </is>
       </c>
-      <c r="C53" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D53" s="32" t="n">
+      <c r="C53" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D53" s="33" t="n">
         <v>30.6</v>
       </c>
-      <c r="E53" s="37" t="n"/>
-      <c r="F53" s="33" t="n"/>
-    </row>
-    <row r="54" ht="15" customHeight="1" s="27">
-      <c r="A54" s="45" t="inlineStr">
+      <c r="E53" s="38" t="n"/>
+      <c r="F53" s="34" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1" s="28">
+      <c r="A54" s="46" t="inlineStr">
         <is>
           <t>Reshiram do N</t>
         </is>
       </c>
-      <c r="B54" s="45" t="n"/>
-      <c r="C54" s="33" t="n"/>
-      <c r="D54" s="37" t="n"/>
-      <c r="E54" s="37" t="n"/>
-      <c r="F54" s="33" t="n"/>
-    </row>
-    <row r="55" ht="15" customHeight="1" s="27">
-      <c r="A55" s="45" t="inlineStr">
+      <c r="B54" s="46" t="n"/>
+      <c r="C54" s="34" t="n"/>
+      <c r="D54" s="38" t="n"/>
+      <c r="E54" s="38" t="n"/>
+      <c r="F54" s="34" t="n"/>
+    </row>
+    <row r="55" ht="15" customHeight="1" s="28">
+      <c r="A55" s="46" t="inlineStr">
         <is>
           <t>Salamence EX</t>
         </is>
       </c>
-      <c r="B55" s="45" t="n"/>
-      <c r="C55" s="33" t="n"/>
-      <c r="D55" s="37" t="n"/>
-      <c r="E55" s="37" t="n"/>
-      <c r="F55" s="33" t="n"/>
-    </row>
-    <row r="56" ht="17.35" customHeight="1" s="27">
-      <c r="A56" s="30" t="inlineStr">
+      <c r="B55" s="46" t="n"/>
+      <c r="C55" s="34" t="n"/>
+      <c r="D55" s="38" t="n"/>
+      <c r="E55" s="38" t="n"/>
+      <c r="F55" s="34" t="n"/>
+    </row>
+    <row r="56" ht="17.25" customHeight="1" s="28">
+      <c r="A56" s="31" t="inlineStr">
         <is>
           <t>Scizor</t>
         </is>
       </c>
-      <c r="B56" s="30" t="inlineStr">
+      <c r="B56" s="31" t="inlineStr">
         <is>
           <t>205/197</t>
         </is>
       </c>
-      <c r="C56" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D56" s="32" t="n">
+      <c r="C56" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D56" s="33" t="n">
         <v>49.99</v>
       </c>
-      <c r="E56" s="37" t="n"/>
-      <c r="F56" s="33" t="n"/>
-    </row>
-    <row r="57" ht="17.35" customHeight="1" s="27">
-      <c r="A57" s="30" t="inlineStr">
+      <c r="E56" s="38" t="n"/>
+      <c r="F56" s="34" t="n"/>
+    </row>
+    <row r="57" ht="17.25" customHeight="1" s="28">
+      <c r="A57" s="31" t="inlineStr">
         <is>
           <t>Scizor EX</t>
         </is>
       </c>
-      <c r="B57" s="30" t="inlineStr">
+      <c r="B57" s="31" t="inlineStr">
         <is>
           <t>76/122</t>
         </is>
       </c>
-      <c r="C57" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D57" s="32" t="n">
+      <c r="C57" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D57" s="33" t="n">
         <v>25.9</v>
       </c>
-      <c r="E57" s="37" t="n"/>
-      <c r="F57" s="33" t="n"/>
-    </row>
-    <row r="58" ht="24.45" customHeight="1" s="27">
-      <c r="A58" s="30" t="inlineStr">
+      <c r="E57" s="38" t="n"/>
+      <c r="F57" s="34" t="n"/>
+    </row>
+    <row r="58" ht="24" customHeight="1" s="28">
+      <c r="A58" s="31" t="inlineStr">
         <is>
           <t>Skyla</t>
         </is>
       </c>
-      <c r="B58" s="30" t="inlineStr">
+      <c r="B58" s="31" t="inlineStr">
         <is>
           <t>122/122</t>
         </is>
       </c>
-      <c r="C58" s="41" t="inlineStr">
+      <c r="C58" s="42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D58" s="32" t="n">
+      <c r="D58" s="33" t="n">
         <v>169</v>
       </c>
-      <c r="E58" s="37" t="n"/>
-      <c r="F58" s="33" t="n"/>
-      <c r="N58" s="46" t="n"/>
-    </row>
-    <row r="59" ht="17.35" customHeight="1" s="27">
-      <c r="A59" s="30" t="inlineStr">
+      <c r="E58" s="38" t="n"/>
+      <c r="F58" s="34" t="n"/>
+      <c r="N58" s="47" t="n"/>
+    </row>
+    <row r="59" ht="17.25" customHeight="1" s="28">
+      <c r="A59" s="31" t="inlineStr">
         <is>
           <t>Snorlax-GX</t>
         </is>
       </c>
-      <c r="B59" s="30" t="inlineStr">
+      <c r="B59" s="31" t="inlineStr">
         <is>
           <t>001/298</t>
         </is>
       </c>
-      <c r="C59" s="42" t="inlineStr">
+      <c r="C59" s="43" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D59" s="32" t="n">
+      <c r="D59" s="33" t="n">
         <v>25.5</v>
       </c>
-      <c r="E59" s="37" t="n"/>
-      <c r="F59" s="33" t="n"/>
-      <c r="N59" s="40" t="n"/>
-    </row>
-    <row r="60" ht="17.35" customHeight="1" s="27">
-      <c r="A60" s="45" t="inlineStr">
+      <c r="E59" s="38" t="n"/>
+      <c r="F59" s="34" t="n"/>
+      <c r="N59" s="41" t="n"/>
+    </row>
+    <row r="60" ht="17.25" customHeight="1" s="28">
+      <c r="A60" s="46" t="inlineStr">
         <is>
           <t>stunfisk</t>
         </is>
       </c>
-      <c r="B60" s="30" t="n"/>
-      <c r="C60" s="31" t="n"/>
-      <c r="D60" s="32" t="n"/>
-      <c r="E60" s="37" t="n"/>
-      <c r="F60" s="33" t="n"/>
-      <c r="N60" s="40" t="n"/>
-    </row>
-    <row r="61" ht="44" customHeight="1" s="27">
-      <c r="A61" s="47" t="inlineStr">
+      <c r="B60" s="31" t="n"/>
+      <c r="C60" s="32" t="n"/>
+      <c r="D60" s="33" t="n"/>
+      <c r="E60" s="38" t="n"/>
+      <c r="F60" s="34" t="n"/>
+      <c r="N60" s="41" t="n"/>
+    </row>
+    <row r="61" ht="43.5" customHeight="1" s="28">
+      <c r="A61" s="48" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sylveon-EX</t>
         </is>
       </c>
-      <c r="B61" s="30" t="inlineStr">
+      <c r="B61" s="31" t="inlineStr">
         <is>
           <t>RC32/83</t>
         </is>
       </c>
-      <c r="C61" s="41" t="inlineStr">
+      <c r="C61" s="42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D61" s="32" t="n">
+      <c r="D61" s="33" t="n">
         <v>226.99</v>
       </c>
-      <c r="E61" s="37" t="n"/>
-      <c r="F61" s="33" t="n"/>
-    </row>
-    <row r="62" ht="17.35" customHeight="1" s="27">
-      <c r="A62" s="45" t="inlineStr">
+      <c r="E61" s="38" t="n"/>
+      <c r="F61" s="34" t="n"/>
+    </row>
+    <row r="62" ht="17.25" customHeight="1" s="28">
+      <c r="A62" s="46" t="inlineStr">
         <is>
           <t>Sylveon EX</t>
         </is>
       </c>
-      <c r="B62" s="30" t="n"/>
-      <c r="C62" s="31" t="n"/>
-      <c r="D62" s="32" t="n"/>
-      <c r="E62" s="37" t="n"/>
-      <c r="F62" s="33" t="n"/>
-    </row>
-    <row r="63" ht="17.35" customHeight="1" s="27">
-      <c r="A63" s="30" t="inlineStr">
+      <c r="B62" s="31" t="n"/>
+      <c r="C62" s="32" t="n"/>
+      <c r="D62" s="33" t="n"/>
+      <c r="E62" s="38" t="n"/>
+      <c r="F62" s="34" t="n"/>
+    </row>
+    <row r="63" ht="17.25" customHeight="1" s="28">
+      <c r="A63" s="31" t="inlineStr">
         <is>
           <t>Tatsugiri ex</t>
         </is>
       </c>
-      <c r="B63" s="30" t="inlineStr">
+      <c r="B63" s="31" t="inlineStr">
         <is>
           <t>226/191</t>
         </is>
       </c>
-      <c r="C63" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D63" s="32" t="n">
+      <c r="C63" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D63" s="33" t="n">
         <v>8.99</v>
       </c>
-      <c r="E63" s="37" t="n"/>
-      <c r="F63" s="33" t="n"/>
-    </row>
-    <row r="64" ht="17.35" customHeight="1" s="27">
-      <c r="A64" s="30" t="inlineStr">
+      <c r="E63" s="38" t="n"/>
+      <c r="F63" s="34" t="n"/>
+    </row>
+    <row r="64" ht="17.25" customHeight="1" s="28">
+      <c r="A64" s="31" t="inlineStr">
         <is>
           <t>Torterra EX</t>
         </is>
       </c>
-      <c r="B64" s="30" t="inlineStr">
+      <c r="B64" s="31" t="inlineStr">
         <is>
           <t>185/162</t>
         </is>
       </c>
-      <c r="C64" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D64" s="32" t="n">
+      <c r="C64" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D64" s="33" t="n">
         <v>13.41</v>
       </c>
-      <c r="E64" s="37" t="n"/>
-      <c r="F64" s="33" t="n"/>
-    </row>
-    <row r="65" ht="17.35" customHeight="1" s="27">
-      <c r="A65" s="45" t="inlineStr">
+      <c r="E64" s="38" t="n"/>
+      <c r="F64" s="34" t="n"/>
+    </row>
+    <row r="65" ht="17.25" customHeight="1" s="28">
+      <c r="A65" s="46" t="inlineStr">
         <is>
           <t>Umbreon (pokebola)</t>
         </is>
       </c>
-      <c r="B65" s="30" t="n"/>
-      <c r="C65" s="31" t="n"/>
-      <c r="D65" s="32" t="n"/>
-      <c r="E65" s="37" t="n"/>
-      <c r="F65" s="33" t="n"/>
-    </row>
-    <row r="66" ht="17.35" customHeight="1" s="27">
-      <c r="A66" s="30" t="inlineStr">
+      <c r="B65" s="31" t="n"/>
+      <c r="C65" s="32" t="n"/>
+      <c r="D65" s="33" t="n"/>
+      <c r="E65" s="38" t="n"/>
+      <c r="F65" s="34" t="n"/>
+    </row>
+    <row r="66" ht="17.25" customHeight="1" s="28">
+      <c r="A66" s="31" t="inlineStr">
         <is>
           <t>Umbreon EX</t>
         </is>
       </c>
-      <c r="B66" s="30" t="inlineStr">
+      <c r="B66" s="31" t="inlineStr">
         <is>
           <t>119/124</t>
         </is>
       </c>
-      <c r="C66" s="41" t="inlineStr">
+      <c r="C66" s="42" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
       </c>
-      <c r="D66" s="32" t="n">
+      <c r="D66" s="33" t="n">
         <v>189.9</v>
       </c>
-      <c r="E66" s="37" t="n"/>
-      <c r="F66" s="33" t="n"/>
-    </row>
-    <row r="67" ht="17.35" customHeight="1" s="27">
-      <c r="A67" s="45" t="inlineStr">
+      <c r="E66" s="38" t="n"/>
+      <c r="F66" s="34" t="n"/>
+    </row>
+    <row r="67" ht="17.25" customHeight="1" s="28">
+      <c r="A67" s="46" t="inlineStr">
         <is>
           <t>Veluza EX</t>
         </is>
       </c>
-      <c r="B67" s="30" t="n"/>
-      <c r="C67" s="31" t="n"/>
-      <c r="D67" s="32" t="n"/>
-      <c r="E67" s="37" t="n"/>
-      <c r="F67" s="33" t="n"/>
-    </row>
-    <row r="68" ht="17.35" customHeight="1" s="27">
-      <c r="A68" s="30" t="inlineStr">
+      <c r="B67" s="31" t="n"/>
+      <c r="C67" s="32" t="n"/>
+      <c r="D67" s="33" t="n"/>
+      <c r="E67" s="38" t="n"/>
+      <c r="F67" s="34" t="n"/>
+    </row>
+    <row r="68" ht="17.25" customHeight="1" s="28">
+      <c r="A68" s="31" t="inlineStr">
         <is>
           <t>Victini EX</t>
         </is>
       </c>
-      <c r="B68" s="30" t="inlineStr">
+      <c r="B68" s="31" t="inlineStr">
         <is>
           <t>131/135</t>
         </is>
       </c>
-      <c r="C68" s="43" t="inlineStr">
+      <c r="C68" s="44" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="D68" s="32" t="n">
+      <c r="D68" s="33" t="n">
         <v>51.9</v>
       </c>
-      <c r="E68" s="37" t="n"/>
-      <c r="F68" s="33" t="n"/>
-    </row>
-    <row r="69" ht="17.35" customHeight="1" s="27">
-      <c r="A69" s="30" t="inlineStr">
+      <c r="E68" s="38" t="n"/>
+      <c r="F68" s="34" t="n"/>
+    </row>
+    <row r="69" ht="17.25" customHeight="1" s="28">
+      <c r="A69" s="31" t="inlineStr">
         <is>
           <t>Voltorb de hisui</t>
         </is>
       </c>
-      <c r="B69" s="30" t="inlineStr">
+      <c r="B69" s="31" t="inlineStr">
         <is>
           <t>GG01/GG70</t>
         </is>
       </c>
-      <c r="C69" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D69" s="32" t="n">
+      <c r="C69" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D69" s="33" t="n">
         <v>8.27</v>
       </c>
-      <c r="E69" s="37" t="n"/>
-      <c r="F69" s="33" t="n"/>
-    </row>
-    <row r="70" ht="17.35" customHeight="1" s="27">
-      <c r="A70" s="30" t="inlineStr">
+      <c r="E69" s="38" t="n"/>
+      <c r="F69" s="34" t="n"/>
+    </row>
+    <row r="70" ht="17.25" customHeight="1" s="28">
+      <c r="A70" s="31" t="inlineStr">
         <is>
           <t>Zapdos</t>
         </is>
       </c>
-      <c r="B70" s="30" t="inlineStr">
+      <c r="B70" s="31" t="inlineStr">
         <is>
           <t>29/83</t>
         </is>
       </c>
-      <c r="C70" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D70" s="32" t="n">
+      <c r="C70" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D70" s="33" t="n">
         <v>44.9</v>
       </c>
-      <c r="E70" s="37" t="n"/>
-      <c r="F70" s="33" t="n"/>
-    </row>
-    <row r="71" ht="15" customHeight="1" s="27">
-      <c r="A71" s="45" t="inlineStr">
+      <c r="E70" s="38" t="n"/>
+      <c r="F70" s="34" t="n"/>
+    </row>
+    <row r="71" ht="15" customHeight="1" s="28">
+      <c r="A71" s="46" t="inlineStr">
         <is>
           <t>Zacian EX</t>
         </is>
       </c>
-      <c r="B71" s="45" t="n"/>
-      <c r="C71" s="33" t="n"/>
-      <c r="D71" s="33" t="n"/>
-      <c r="E71" s="33" t="n"/>
-      <c r="F71" s="33" t="n"/>
-    </row>
-    <row r="72" ht="58.2" customHeight="1" s="27">
-      <c r="A72" s="47" t="inlineStr">
+      <c r="B71" s="46" t="n"/>
+      <c r="C71" s="34" t="n"/>
+      <c r="D71" s="34" t="n"/>
+      <c r="E71" s="34" t="n"/>
+      <c r="F71" s="34" t="n"/>
+    </row>
+    <row r="72" ht="57.75" customHeight="1" s="28">
+      <c r="A72" s="48" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Zeraora-V-ASTRO</t>
         </is>
       </c>
-      <c r="B72" s="30" t="inlineStr">
+      <c r="B72" s="31" t="inlineStr">
         <is>
           <t>GG43/GG70</t>
         </is>
       </c>
-      <c r="C72" s="31" t="inlineStr">
-        <is>
-          <t>NM</t>
-        </is>
-      </c>
-      <c r="D72" s="32" t="n">
+      <c r="C72" s="32" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="D72" s="33" t="n">
         <v>129.9</v>
       </c>
-      <c r="E72" s="33" t="n"/>
-      <c r="F72" s="33" t="n"/>
+      <c r="E72" s="34" t="n"/>
+      <c r="F72" s="34" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2055,52 +2058,52 @@
   </sheetPr>
   <dimension ref="D8:D13"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="1" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="60.57" customWidth="1" style="48" min="4" max="4"/>
+    <col width="60.57" customWidth="1" style="49" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="8" ht="24.45" customHeight="1" s="27">
-      <c r="D8" s="49" t="inlineStr">
+    <row r="8" ht="24" customHeight="1" s="28">
+      <c r="D8" s="50" t="inlineStr">
         <is>
           <t>Condições</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="17.35" customHeight="1" s="27">
-      <c r="D9" s="50" t="inlineStr">
+    <row r="9" ht="17.25" customHeight="1" s="28">
+      <c r="D9" s="51" t="inlineStr">
         <is>
           <t>NM - Nearly mint (Quase nova)</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="17.35" customHeight="1" s="27">
-      <c r="D10" s="51" t="inlineStr">
+    <row r="10" ht="17.25" customHeight="1" s="28">
+      <c r="D10" s="52" t="inlineStr">
         <is>
           <t>SP - Slightly Played (Pouco usada)</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="17.35" customHeight="1" s="27">
-      <c r="D11" s="52" t="inlineStr">
+    <row r="11" ht="17.25" customHeight="1" s="28">
+      <c r="D11" s="53" t="inlineStr">
         <is>
           <t>MP - Moderately Played (Moderadamente usada)</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="17.35" customHeight="1" s="27">
-      <c r="D12" s="53" t="inlineStr">
+    <row r="12" ht="17.25" customHeight="1" s="28">
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>HP - Heavily Played (Muito usada)</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="17.35" customHeight="1" s="27">
-      <c r="D13" s="54" t="inlineStr">
+    <row r="13" ht="17.25" customHeight="1" s="28">
+      <c r="D13" s="55" t="inlineStr">
         <is>
           <t>D - Damaged (Danificada)</t>
         </is>
